--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H2">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J2">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.00977517541942</v>
+        <v>5.574474333333334</v>
       </c>
       <c r="N2">
-        <v>5.00977517541942</v>
+        <v>16.723423</v>
       </c>
       <c r="O2">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="P2">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="Q2">
-        <v>34.13695119229858</v>
+        <v>37.99136373208367</v>
       </c>
       <c r="R2">
-        <v>34.13695119229858</v>
+        <v>341.922273588753</v>
       </c>
       <c r="S2">
-        <v>0.06522010441592559</v>
+        <v>0.06574701354753275</v>
       </c>
       <c r="T2">
-        <v>0.06522010441592559</v>
+        <v>0.06574701354753275</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H3">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I3">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J3">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.88944125147127</v>
+        <v>9.087366333333334</v>
       </c>
       <c r="N3">
-        <v>8.88944125147127</v>
+        <v>27.262099</v>
       </c>
       <c r="O3">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="P3">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="Q3">
-        <v>60.57326157413336</v>
+        <v>61.93255526748766</v>
       </c>
       <c r="R3">
-        <v>60.57326157413336</v>
+        <v>557.392997407389</v>
       </c>
       <c r="S3">
-        <v>0.1157278054042922</v>
+        <v>0.1071791099398239</v>
       </c>
       <c r="T3">
-        <v>0.1157278054042922</v>
+        <v>0.1071791099398239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H4">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I4">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J4">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.24586829951482</v>
+        <v>1.263619666666667</v>
       </c>
       <c r="N4">
-        <v>1.24586829951482</v>
+        <v>3.790859</v>
       </c>
       <c r="O4">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="P4">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="Q4">
-        <v>8.48943192924996</v>
+        <v>8.611867506194335</v>
       </c>
       <c r="R4">
-        <v>8.48943192924996</v>
+        <v>77.50680755574901</v>
       </c>
       <c r="S4">
-        <v>0.01621942257639246</v>
+        <v>0.01490350737583965</v>
       </c>
       <c r="T4">
-        <v>0.01621942257639246</v>
+        <v>0.01490350737583965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H5">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I5">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J5">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.45081016781309</v>
+        <v>2.524982</v>
       </c>
       <c r="N5">
-        <v>2.45081016781309</v>
+        <v>7.574946000000001</v>
       </c>
       <c r="O5">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="P5">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="Q5">
-        <v>16.69998835291451</v>
+        <v>17.208350750734</v>
       </c>
       <c r="R5">
-        <v>16.69998835291451</v>
+        <v>154.875156756606</v>
       </c>
       <c r="S5">
-        <v>0.03190604157900156</v>
+        <v>0.02978039108882368</v>
       </c>
       <c r="T5">
-        <v>0.03190604157900156</v>
+        <v>0.02978039108882368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.81406849548705</v>
+        <v>6.815237</v>
       </c>
       <c r="H6">
-        <v>6.81406849548705</v>
+        <v>20.445711</v>
       </c>
       <c r="I6">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="J6">
-        <v>0.2476661926483412</v>
+        <v>0.2378434356645352</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42817682157789</v>
+        <v>1.715525</v>
       </c>
       <c r="N6">
-        <v>1.42817682157789</v>
+        <v>5.146575</v>
       </c>
       <c r="O6">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323565</v>
       </c>
       <c r="P6">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323567</v>
       </c>
       <c r="Q6">
-        <v>9.731694685898731</v>
+        <v>11.691709454425</v>
       </c>
       <c r="R6">
-        <v>9.731694685898731</v>
+        <v>105.225385089825</v>
       </c>
       <c r="S6">
-        <v>0.01859281867272947</v>
+        <v>0.02023341371251527</v>
       </c>
       <c r="T6">
-        <v>0.01859281867272947</v>
+        <v>0.02023341371251528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H7">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I7">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J7">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.00977517541942</v>
+        <v>5.574474333333334</v>
       </c>
       <c r="N7">
-        <v>5.00977517541942</v>
+        <v>16.723423</v>
       </c>
       <c r="O7">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="P7">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="Q7">
-        <v>12.94005907861684</v>
+        <v>14.83128289335289</v>
       </c>
       <c r="R7">
-        <v>12.94005907861684</v>
+        <v>133.481546040176</v>
       </c>
       <c r="S7">
-        <v>0.02472253598458536</v>
+        <v>0.02566669004548214</v>
       </c>
       <c r="T7">
-        <v>0.02472253598458536</v>
+        <v>0.02566669004548214</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H8">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I8">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J8">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.88944125147127</v>
+        <v>9.087366333333334</v>
       </c>
       <c r="N8">
-        <v>8.88944125147127</v>
+        <v>27.262099</v>
       </c>
       <c r="O8">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="P8">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="Q8">
-        <v>22.96108925892099</v>
+        <v>24.17758030372089</v>
       </c>
       <c r="R8">
-        <v>22.96108925892099</v>
+        <v>217.598222733488</v>
       </c>
       <c r="S8">
-        <v>0.04386814248684461</v>
+        <v>0.04184118556483613</v>
       </c>
       <c r="T8">
-        <v>0.04386814248684461</v>
+        <v>0.04184118556483614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H9">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I9">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J9">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.24586829951482</v>
+        <v>1.263619666666667</v>
       </c>
       <c r="N9">
-        <v>1.24586829951482</v>
+        <v>3.790859</v>
       </c>
       <c r="O9">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="P9">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="Q9">
-        <v>3.218030517416974</v>
+        <v>3.361949418956445</v>
       </c>
       <c r="R9">
-        <v>3.218030517416974</v>
+        <v>30.257544770608</v>
       </c>
       <c r="S9">
-        <v>0.00614818485626566</v>
+        <v>0.005818115284121342</v>
       </c>
       <c r="T9">
-        <v>0.00614818485626566</v>
+        <v>0.005818115284121342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H10">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I10">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J10">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.45081016781309</v>
+        <v>2.524982</v>
       </c>
       <c r="N10">
-        <v>2.45081016781309</v>
+        <v>7.574946000000001</v>
       </c>
       <c r="O10">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="P10">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="Q10">
-        <v>6.330349616801148</v>
+        <v>6.717893043061333</v>
       </c>
       <c r="R10">
-        <v>6.330349616801148</v>
+        <v>60.461037387552</v>
       </c>
       <c r="S10">
-        <v>0.01209440352980993</v>
+        <v>0.01162583707254578</v>
       </c>
       <c r="T10">
-        <v>0.01209440352980993</v>
+        <v>0.01162583707254578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.58296203432592</v>
+        <v>2.660570666666667</v>
       </c>
       <c r="H11">
-        <v>2.58296203432592</v>
+        <v>7.981712</v>
       </c>
       <c r="I11">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="J11">
-        <v>0.09388111863278091</v>
+        <v>0.09285066215427033</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.42817682157789</v>
+        <v>1.715525</v>
       </c>
       <c r="N11">
-        <v>1.42817682157789</v>
+        <v>5.146575</v>
       </c>
       <c r="O11">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323565</v>
       </c>
       <c r="P11">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323567</v>
       </c>
       <c r="Q11">
-        <v>3.688926508439954</v>
+        <v>4.564275492933334</v>
       </c>
       <c r="R11">
-        <v>3.688926508439954</v>
+        <v>41.0784794364</v>
       </c>
       <c r="S11">
-        <v>0.007047851775275351</v>
+        <v>0.007898834187284938</v>
       </c>
       <c r="T11">
-        <v>0.007047851775275351</v>
+        <v>0.00789883418728494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H12">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I12">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J12">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.00977517541942</v>
+        <v>5.574474333333334</v>
       </c>
       <c r="N12">
-        <v>5.00977517541942</v>
+        <v>16.723423</v>
       </c>
       <c r="O12">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="P12">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="Q12">
-        <v>26.12924945719856</v>
+        <v>29.35212331108245</v>
       </c>
       <c r="R12">
-        <v>26.12924945719856</v>
+        <v>264.169109799742</v>
       </c>
       <c r="S12">
-        <v>0.04992104796671824</v>
+        <v>0.0507961352109312</v>
       </c>
       <c r="T12">
-        <v>0.04992104796671824</v>
+        <v>0.05079613521093119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H13">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I13">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J13">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.88944125147127</v>
+        <v>9.087366333333334</v>
       </c>
       <c r="N13">
-        <v>8.88944125147127</v>
+        <v>27.262099</v>
       </c>
       <c r="O13">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="P13">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="Q13">
-        <v>46.36424187944883</v>
+        <v>47.84908517633845</v>
       </c>
       <c r="R13">
-        <v>46.36424187944883</v>
+        <v>430.641766587046</v>
       </c>
       <c r="S13">
-        <v>0.08858086592176634</v>
+        <v>0.08280656818510133</v>
       </c>
       <c r="T13">
-        <v>0.08858086592176634</v>
+        <v>0.08280656818510133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H14">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I14">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J14">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24586829951482</v>
+        <v>1.263619666666667</v>
       </c>
       <c r="N14">
-        <v>1.24586829951482</v>
+        <v>3.790859</v>
       </c>
       <c r="O14">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="P14">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="Q14">
-        <v>6.498016866817403</v>
+        <v>6.653527858676224</v>
       </c>
       <c r="R14">
-        <v>6.498016866817403</v>
+        <v>59.881750728086</v>
       </c>
       <c r="S14">
-        <v>0.01241473897779974</v>
+        <v>0.01151444810847489</v>
       </c>
       <c r="T14">
-        <v>0.01241473897779974</v>
+        <v>0.01151444810847489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H15">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I15">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J15">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.45081016781309</v>
+        <v>2.524982</v>
       </c>
       <c r="N15">
-        <v>2.45081016781309</v>
+        <v>7.574946000000001</v>
       </c>
       <c r="O15">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="P15">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="Q15">
-        <v>12.78257566551689</v>
+        <v>13.29516983854267</v>
       </c>
       <c r="R15">
-        <v>12.78257566551689</v>
+        <v>119.656528546884</v>
       </c>
       <c r="S15">
-        <v>0.02442165719232602</v>
+        <v>0.02300832677804672</v>
       </c>
       <c r="T15">
-        <v>0.02442165719232602</v>
+        <v>0.02300832677804672</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.21565310663088</v>
+        <v>5.265451333333334</v>
       </c>
       <c r="H16">
-        <v>5.21565310663088</v>
+        <v>15.796354</v>
       </c>
       <c r="I16">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="J16">
-        <v>0.1895697039073325</v>
+        <v>0.1837578114223185</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.42817682157789</v>
+        <v>1.715525</v>
       </c>
       <c r="N16">
-        <v>1.42817682157789</v>
+        <v>5.146575</v>
       </c>
       <c r="O16">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323565</v>
       </c>
       <c r="P16">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323567</v>
       </c>
       <c r="Q16">
-        <v>7.448874876280938</v>
+        <v>9.033013398616669</v>
       </c>
       <c r="R16">
-        <v>7.448874876280938</v>
+        <v>81.29712058755001</v>
       </c>
       <c r="S16">
-        <v>0.01423139384872219</v>
+        <v>0.0156323331397644</v>
       </c>
       <c r="T16">
-        <v>0.01423139384872219</v>
+        <v>0.0156323331397644</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H17">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I17">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J17">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.00977517541942</v>
+        <v>5.574474333333334</v>
       </c>
       <c r="N17">
-        <v>5.00977517541942</v>
+        <v>16.723423</v>
       </c>
       <c r="O17">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="P17">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="Q17">
-        <v>63.51255738830616</v>
+        <v>76.18379132073822</v>
       </c>
       <c r="R17">
-        <v>63.51255738830616</v>
+        <v>685.654121886644</v>
       </c>
       <c r="S17">
-        <v>0.1213434556956659</v>
+        <v>0.1318419837568771</v>
       </c>
       <c r="T17">
-        <v>0.1213434556956659</v>
+        <v>0.1318419837568771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H18">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I18">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J18">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.88944125147127</v>
+        <v>9.087366333333334</v>
       </c>
       <c r="N18">
-        <v>8.88944125147127</v>
+        <v>27.262099</v>
       </c>
       <c r="O18">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="P18">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="Q18">
-        <v>112.6979011761296</v>
+        <v>124.1928797221302</v>
       </c>
       <c r="R18">
-        <v>112.6979011761296</v>
+        <v>1117.735917499172</v>
       </c>
       <c r="S18">
-        <v>0.2153141573996526</v>
+        <v>0.2149254499833183</v>
       </c>
       <c r="T18">
-        <v>0.2153141573996526</v>
+        <v>0.2149254499833183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H19">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I19">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J19">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.24586829951482</v>
+        <v>1.263619666666667</v>
       </c>
       <c r="N19">
-        <v>1.24586829951482</v>
+        <v>3.790859</v>
       </c>
       <c r="O19">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="P19">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="Q19">
-        <v>15.79477703100354</v>
+        <v>17.26931208893911</v>
       </c>
       <c r="R19">
-        <v>15.79477703100354</v>
+        <v>155.423808800452</v>
       </c>
       <c r="S19">
-        <v>0.03017659665578796</v>
+        <v>0.02988588943200272</v>
       </c>
       <c r="T19">
-        <v>0.03017659665578796</v>
+        <v>0.02988588943200272</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H20">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I20">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J20">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.45081016781309</v>
+        <v>2.524982</v>
       </c>
       <c r="N20">
-        <v>2.45081016781309</v>
+        <v>7.574946000000001</v>
       </c>
       <c r="O20">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="P20">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="Q20">
-        <v>31.07069997767743</v>
+        <v>34.50777423556534</v>
       </c>
       <c r="R20">
-        <v>31.07069997767743</v>
+        <v>310.569968120088</v>
       </c>
       <c r="S20">
-        <v>0.05936190040536454</v>
+        <v>0.05971839063636798</v>
       </c>
       <c r="T20">
-        <v>0.05936190040536454</v>
+        <v>0.05971839063636799</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.6777260783941</v>
+        <v>13.66654266666667</v>
       </c>
       <c r="H21">
-        <v>12.6777260783941</v>
+        <v>40.999628</v>
       </c>
       <c r="I21">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="J21">
-        <v>0.4607884630678379</v>
+        <v>0.4769456236805791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.42817682157789</v>
+        <v>1.715525</v>
       </c>
       <c r="N21">
-        <v>1.42817682157789</v>
+        <v>5.146575</v>
       </c>
       <c r="O21">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323565</v>
       </c>
       <c r="P21">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323567</v>
       </c>
       <c r="Q21">
-        <v>18.10603453547601</v>
+        <v>23.44529560823334</v>
       </c>
       <c r="R21">
-        <v>18.10603453547601</v>
+        <v>211.0076604741</v>
       </c>
       <c r="S21">
-        <v>0.03459235291136693</v>
+        <v>0.04057390987201302</v>
       </c>
       <c r="T21">
-        <v>0.03459235291136693</v>
+        <v>0.04057390987201303</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H22">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I22">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J22">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.00977517541942</v>
+        <v>5.574474333333334</v>
       </c>
       <c r="N22">
-        <v>5.00977517541942</v>
+        <v>16.723423</v>
       </c>
       <c r="O22">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="P22">
-        <v>0.2633387452623821</v>
+        <v>0.2764298008218533</v>
       </c>
       <c r="Q22">
-        <v>1.115704532520855</v>
+        <v>1.374094916059889</v>
       </c>
       <c r="R22">
-        <v>1.115704532520855</v>
+        <v>12.366854244539</v>
       </c>
       <c r="S22">
-        <v>0.002131601199486965</v>
+        <v>0.002377978261030181</v>
       </c>
       <c r="T22">
-        <v>0.002131601199486965</v>
+        <v>0.00237797826103018</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H23">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I23">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J23">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.88944125147127</v>
+        <v>9.087366333333334</v>
       </c>
       <c r="N23">
-        <v>8.88944125147127</v>
+        <v>27.262099</v>
       </c>
       <c r="O23">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="P23">
-        <v>0.4672733253044874</v>
+        <v>0.4506288333767343</v>
       </c>
       <c r="Q23">
-        <v>1.979727542367014</v>
+        <v>2.240014597311889</v>
       </c>
       <c r="R23">
-        <v>1.979727542367014</v>
+        <v>20.160131375807</v>
       </c>
       <c r="S23">
-        <v>0.003782354091931616</v>
+        <v>0.003876519703654726</v>
       </c>
       <c r="T23">
-        <v>0.003782354091931616</v>
+        <v>0.003876519703654726</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H24">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I24">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J24">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.24586829951482</v>
+        <v>1.263619666666667</v>
       </c>
       <c r="N24">
-        <v>1.24586829951482</v>
+        <v>3.790859</v>
       </c>
       <c r="O24">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="P24">
-        <v>0.06548904556958346</v>
+        <v>0.062660999384739</v>
       </c>
       <c r="Q24">
-        <v>0.2774617343135289</v>
+        <v>0.3114792993874445</v>
       </c>
       <c r="R24">
-        <v>0.2774617343135289</v>
+        <v>2.803313694487001</v>
       </c>
       <c r="S24">
-        <v>0.0005301025033376354</v>
+        <v>0.0005390391843004038</v>
       </c>
       <c r="T24">
-        <v>0.0005301025033376354</v>
+        <v>0.0005390391843004037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H25">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I25">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J25">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.45081016781309</v>
+        <v>2.524982</v>
       </c>
       <c r="N25">
-        <v>2.45081016781309</v>
+        <v>7.574946000000001</v>
       </c>
       <c r="O25">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="P25">
-        <v>0.1288267939916395</v>
+        <v>0.1252100610034378</v>
       </c>
       <c r="Q25">
-        <v>0.5458089269142382</v>
+        <v>0.6224021713753334</v>
       </c>
       <c r="R25">
-        <v>0.5458089269142382</v>
+        <v>5.601619542378001</v>
       </c>
       <c r="S25">
-        <v>0.001042791285137434</v>
+        <v>0.001077115427653628</v>
       </c>
       <c r="T25">
-        <v>0.001042791285137434</v>
+        <v>0.001077115427653628</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.222705509419881</v>
+        <v>0.2464976666666667</v>
       </c>
       <c r="H26">
-        <v>0.222705509419881</v>
+        <v>0.7394930000000001</v>
       </c>
       <c r="I26">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296967</v>
       </c>
       <c r="J26">
-        <v>0.00809452174370736</v>
+        <v>0.008602467078296965</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.42817682157789</v>
+        <v>1.715525</v>
       </c>
       <c r="N26">
-        <v>1.42817682157789</v>
+        <v>5.146575</v>
       </c>
       <c r="O26">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323565</v>
       </c>
       <c r="P26">
-        <v>0.07507208987190764</v>
+        <v>0.08507030541323567</v>
       </c>
       <c r="Q26">
-        <v>0.3180628465911705</v>
+        <v>0.4228729096083335</v>
       </c>
       <c r="R26">
-        <v>0.3180628465911705</v>
+        <v>3.805856186475001</v>
       </c>
       <c r="S26">
-        <v>0.0006076726638137095</v>
+        <v>0.000731814501658028</v>
       </c>
       <c r="T26">
-        <v>0.0006076726638137095</v>
+        <v>0.000731814501658028</v>
       </c>
     </row>
   </sheetData>
